--- a/biology/Histoire de la zoologie et de la botanique/Igor_Lintchevski/Igor_Lintchevski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Igor_Lintchevski/Igor_Lintchevski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Igor Alexandrovitch Lintchevski[1] (Игорь Александрович Линчевский), né le 16 ou 18 juin 1908 et mort le 18 juillet 1997 à Saint-Pétersbourg, est un botaniste russe et soviétique.
-Il a consacré l'essentiel de sa carrière à ses travaux botaniques à l'institut de botanique Komarov, portant notamment sur la famille des composées[2]. Il était membre, puis fut président de l'Union internationale des sciences biologiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Igor Alexandrovitch Lintchevski (Игорь Александрович Линчевский), né le 16 ou 18 juin 1908 et mort le 18 juillet 1997 à Saint-Pétersbourg, est un botaniste russe et soviétique.
+Il a consacré l'essentiel de sa carrière à ses travaux botaniques à l'institut de botanique Komarov, portant notamment sur la famille des composées. Il était membre, puis fut président de l'Union internationale des sciences biologiques.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Igor Lintchevski nait dans la famille d'instituteur à Leningrad. Son enfance et scolarité se passent à Tachkent. En 1926-1930, il fait les études à l'Université nationale d'Ouzbékistan, puis, devient assistant à l'Institut Vavilov et collabore notamment avec Mikhaïl Popov. Il s'installe plus tard à Almaty et travaille dans la section kazakh de l'Académie des sciences d'URSS. En 1939, il est muté à Leningrad. Au mois de novembre 1941, alors que la guerre fait rage, dans la ville assiégée Lintchevski soutient sa thèse. Il travaille également à la rédaction du 10e volume de l'ouvrage encyclopédique La Flore d'URSS. Plus tard, il sera décoré de la médaille pour la Défense de Léningrad. De 1964 à 1971, il est le rédacteur en chef de la revue consacrée à la botanique Journal de la taxinomie des plantes terrestres («Новости систематики высших растений»). Il prend sa retraite en 1995.
 </t>
@@ -543,9 +557,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a effectué d'importantes expéditions botaniques en Asie centrale entre 1928 et 1932, au Kamtchatka en 1935 et dans l'Oural entre 1921 et 1927[3]. Ainsi qu'à l'expédition sino-soviétique dans le Yunnan en 1956-1957 avec des savants comme Andreï Fiodorov, Moïsseï Kirpitchnikov et des zoologues, comme V. V. Popov et l'entomologiste Oleg Kryjanovski.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a effectué d'importantes expéditions botaniques en Asie centrale entre 1928 et 1932, au Kamtchatka en 1935 et dans l'Oural entre 1921 et 1927. Ainsi qu'à l'expédition sino-soviétique dans le Yunnan en 1956-1957 avec des savants comme Andreï Fiodorov, Moïsseï Kirpitchnikov et des zoologues, comme V. V. Popov et l'entomologiste Oleg Kryjanovski.
 </t>
         </is>
       </c>
@@ -574,16 +590,18 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Apiaceae : Bupleurum linczevskii Pimenov &amp; Sdobnina[4]
-Asteraceae : Steptorhamphus linczevskii Kirp.[5]
-Lamiaceae : Perovskia linczevskii Kudrj.[6]
-Leguminosae Oxytropis linczevskii Gontsch.[7]
-Plumbaginaceae : Acantholimon linczevskii Pavlov[8]
-Poaceae : Roegneria linczevskii Czopanov[9]
-Rosaceae : Malus linczevskii Poljakov[10]
-Scrophulariaceae : Orobanche linczevskii Novopokr.[11]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Apiaceae : Bupleurum linczevskii Pimenov &amp; Sdobnina
+Asteraceae : Steptorhamphus linczevskii Kirp.
+Lamiaceae : Perovskia linczevskii Kudrj.
+Leguminosae Oxytropis linczevskii Gontsch.
+Plumbaginaceae : Acantholimon linczevskii Pavlov
+Poaceae : Roegneria linczevskii Czopanov
+Rosaceae : Malus linczevskii Poljakov
+Scrophulariaceae : Orobanche linczevskii Novopokr.</t>
         </is>
       </c>
     </row>
